--- a/Instances/04_Lumpy_b2_fe25_en_rk50_ll0_l20_H110_c2.xlsx
+++ b/Instances/04_Lumpy_b2_fe25_en_rk50_ll0_l20_H110_c2.xlsx
@@ -591,7 +591,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5848,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1681</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
@@ -5880,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1201</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
@@ -5912,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>3601</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
@@ -5944,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>841</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
@@ -5976,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>6481</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
@@ -6008,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>2401</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>601</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>841</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1201</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>361</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0.080568</v>
@@ -6168,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
@@ -6415,34 +6415,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -6486,34 +6486,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -6557,34 +6557,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -6628,34 +6628,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -7212,34 +7212,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7283,34 +7283,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -7354,34 +7354,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -7425,34 +7425,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>

--- a/Instances/04_Lumpy_b2_fe25_en_rk50_ll0_l20_H110_c2.xlsx
+++ b/Instances/04_Lumpy_b2_fe25_en_rk50_ll0_l20_H110_c2.xlsx
@@ -5848,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.086564</v>
@@ -5880,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0864</v>
@@ -5912,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.085956</v>
@@ -5944,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.08652000000000001</v>
@@ -5976,7 +5976,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.081928</v>
@@ -6008,7 +6008,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.08210000000000001</v>
@@ -6040,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.08099600000000001</v>
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.080152</v>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.080388</v>
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.080568</v>
@@ -6168,7 +6168,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0.08024000000000001</v>
